--- a/MeioTp1FolhaCalculo.xlsx
+++ b/MeioTp1FolhaCalculo.xlsx
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -146,7 +146,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +162,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2013,13 +2025,13 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2241,46 +2253,52 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2342,7 +2360,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -2353,15 +2370,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2411,7 +2419,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -2422,15 +2429,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2480,7 +2478,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -2491,15 +2488,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2549,7 +2537,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -2560,15 +2547,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2618,7 +2596,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -2629,15 +2606,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2687,7 +2655,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -2698,15 +2665,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2756,7 +2714,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -2767,15 +2724,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -3141,8 +3089,8 @@
   </sheetPr>
   <dimension ref="A1:AD177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V180" sqref="V180"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC167" sqref="AC167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3244,10 +3192,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="148" t="s">
+      <c r="I5" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="149"/>
+      <c r="J5" s="161"/>
       <c r="K5" s="14"/>
       <c r="L5" s="71"/>
     </row>
@@ -3428,35 +3376,35 @@
       <c r="AB11" s="90"/>
     </row>
     <row r="12" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="151"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="159"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="158"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="157"/>
+      <c r="A12" s="149"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="158"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="155"/>
       <c r="Y12" s="119"/>
       <c r="Z12" s="74">
         <v>0</v>
       </c>
-      <c r="AA12" s="161"/>
+      <c r="AA12" s="159"/>
       <c r="AB12" s="90"/>
     </row>
     <row r="13" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3618,7 +3566,7 @@
       <c r="U15" s="106"/>
       <c r="V15" s="11"/>
       <c r="W15" s="105">
-        <f>IF(SUM(D15:I15)&gt;0.95,Q15+T15,"")</f>
+        <f t="shared" ref="W15:W26" si="0">IF(SUM(D15:I15)&gt;0.95,Q15+T15,"")</f>
         <v>0.69</v>
       </c>
       <c r="X15" s="107"/>
@@ -3687,7 +3635,7 @@
       <c r="U16" s="23"/>
       <c r="V16" s="12"/>
       <c r="W16" s="9">
-        <f>IF(SUM(D16:I16)&gt;0.95,Q16+T16,"")</f>
+        <f t="shared" si="0"/>
         <v>2.0779999999999998</v>
       </c>
       <c r="X16" s="108"/>
@@ -3756,13 +3704,13 @@
       <c r="R17" s="108"/>
       <c r="S17" s="14"/>
       <c r="T17" s="9">
-        <f t="shared" ref="T15:T18" si="0">D17*$Z$8+E17*$Z$9+F17*$Z$10+G17*$Z$11+H17*$Z$12+I17*$Z$13</f>
+        <f t="shared" ref="T17" si="1">D17*$Z$8+E17*$Z$9+F17*$Z$10+G17*$Z$11+H17*$Z$12+I17*$Z$13</f>
         <v>0</v>
       </c>
       <c r="U17" s="23"/>
       <c r="V17" s="12"/>
       <c r="W17" s="9">
-        <f>IF(SUM(D17:I17)&gt;0.95,Q17+T17,"")</f>
+        <f t="shared" si="0"/>
         <v>5.809499999999999</v>
       </c>
       <c r="X17" s="108"/>
@@ -3819,7 +3767,7 @@
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="9">
-        <f t="shared" ref="Q18:Q19" si="1">IF(SUM(D18:I18)&gt;0.95,D18*J18+E18*K18+F18*L18+G18*M18+H18*N18+I18*O18,"")</f>
+        <f t="shared" ref="Q18:Q19" si="2">IF(SUM(D18:I18)&gt;0.95,D18*J18+E18*K18+F18*L18+G18*M18+H18*N18+I18*O18,"")</f>
         <v>13.3415</v>
       </c>
       <c r="R18" s="108"/>
@@ -3831,7 +3779,7 @@
       <c r="U18" s="23"/>
       <c r="V18" s="12"/>
       <c r="W18" s="9">
-        <f>IF(SUM(D18:I18)&gt;0.95,Q18+T18,"")</f>
+        <f t="shared" si="0"/>
         <v>13.3415</v>
       </c>
       <c r="X18" s="108"/>
@@ -3888,7 +3836,7 @@
       </c>
       <c r="P19" s="119"/>
       <c r="Q19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.22</v>
       </c>
       <c r="R19" s="120"/>
@@ -3900,7 +3848,7 @@
       <c r="U19" s="118"/>
       <c r="V19" s="119"/>
       <c r="W19" s="9">
-        <f>IF(SUM(D19:I19)&gt;0.95,Q19+T19,"")</f>
+        <f t="shared" si="0"/>
         <v>32.22</v>
       </c>
       <c r="X19" s="120"/>
@@ -3969,7 +3917,7 @@
       <c r="U20" s="111"/>
       <c r="V20" s="112"/>
       <c r="W20" s="110">
-        <f>IF(SUM(D20:I20)&gt;0.95,Q20+T20,"")</f>
+        <f t="shared" si="0"/>
         <v>16.100000000000001</v>
       </c>
       <c r="X20" s="113"/>
@@ -4038,7 +3986,7 @@
       <c r="U21" s="44"/>
       <c r="V21" s="115"/>
       <c r="W21" s="15">
-        <f>IF(SUM(D21:I21)&gt;0.95,Q21+T21,"")</f>
+        <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
       <c r="X21" s="116"/>
@@ -4101,13 +4049,13 @@
       <c r="R22" s="108"/>
       <c r="S22" s="14"/>
       <c r="T22" s="9">
-        <f t="shared" ref="T22:T25" si="2">D22*$Z$8+E22*$Z$9+F22*$Z$10+G22*$Z$11+H22*$Z$12+I22*$Z$13</f>
+        <f t="shared" ref="T22:T23" si="3">D22*$Z$8+E22*$Z$9+F22*$Z$10+G22*$Z$11+H22*$Z$12+I22*$Z$13</f>
         <v>0</v>
       </c>
       <c r="U22" s="23"/>
       <c r="V22" s="12"/>
       <c r="W22" s="9">
-        <f>IF(SUM(D22:I22)&gt;0.95,Q22+T22,"")</f>
+        <f t="shared" si="0"/>
         <v>4.72</v>
       </c>
       <c r="X22" s="108"/>
@@ -4170,13 +4118,13 @@
       <c r="R23" s="108"/>
       <c r="S23" s="14"/>
       <c r="T23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U23" s="23"/>
       <c r="V23" s="12"/>
       <c r="W23" s="9">
-        <f>IF(SUM(D23:I23)&gt;0.95,Q23+T23,"")</f>
+        <f t="shared" si="0"/>
         <v>5.6419999999999995</v>
       </c>
       <c r="X23" s="108"/>
@@ -4230,7 +4178,7 @@
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="9">
-        <f t="shared" ref="Q23:Q25" si="3">IF(SUM(D24:I24)&gt;0.95,D24*J24+E24*K24+F24*L24+G24*M24+H24*N24+I24*O24,"")</f>
+        <f t="shared" ref="Q24:Q25" si="4">IF(SUM(D24:I24)&gt;0.95,D24*J24+E24*K24+F24*L24+G24*M24+H24*N24+I24*O24,"")</f>
         <v>8.4640000000000004</v>
       </c>
       <c r="R24" s="108"/>
@@ -4242,7 +4190,7 @@
       <c r="U24" s="23"/>
       <c r="V24" s="12"/>
       <c r="W24" s="9">
-        <f>IF(SUM(D24:I24)&gt;0.95,Q24+T24,"")</f>
+        <f t="shared" si="0"/>
         <v>8.4640000000000004</v>
       </c>
       <c r="X24" s="108"/>
@@ -4296,7 +4244,7 @@
       </c>
       <c r="P25" s="119"/>
       <c r="Q25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.135999999999999</v>
       </c>
       <c r="R25" s="120"/>
@@ -4308,7 +4256,7 @@
       <c r="U25" s="118"/>
       <c r="V25" s="119"/>
       <c r="W25" s="9">
-        <f>IF(SUM(D25:I25)&gt;0.95,Q25+T25,"")</f>
+        <f t="shared" si="0"/>
         <v>16.135999999999999</v>
       </c>
       <c r="X25" s="120"/>
@@ -4374,7 +4322,7 @@
       <c r="U26" s="118"/>
       <c r="V26" s="119"/>
       <c r="W26" s="21">
-        <f>IF(SUM(D26:I26)&gt;0.95,Q26+T26,"")</f>
+        <f t="shared" si="0"/>
         <v>16.100000000000001</v>
       </c>
       <c r="X26" s="120"/>
@@ -4439,8 +4387,8 @@
       </c>
       <c r="U27" s="121"/>
       <c r="V27" s="122"/>
-      <c r="W27" s="150">
-        <f t="shared" ref="W27:W29" si="4">IF(SUM(D27:I27)&gt;0.95,Q27+T27,"")</f>
+      <c r="W27" s="148">
+        <f t="shared" ref="W27:W29" si="5">IF(SUM(D27:I27)&gt;0.95,Q27+T27,"")</f>
         <v>0.69</v>
       </c>
       <c r="X27" s="123"/>
@@ -4500,13 +4448,13 @@
       <c r="R28" s="108"/>
       <c r="S28" s="14"/>
       <c r="T28" s="9">
-        <f t="shared" ref="T28:T29" si="5">D28*$Z$8+E28*$Z$9+F28*$Z$10+G28*$Z$11+H28*$Z$12+I28*$Z$13</f>
+        <f t="shared" ref="T28:T29" si="6">D28*$Z$8+E28*$Z$9+F28*$Z$10+G28*$Z$11+H28*$Z$12+I28*$Z$13</f>
         <v>0</v>
       </c>
       <c r="U28" s="23"/>
       <c r="V28" s="12"/>
       <c r="W28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.7200000000000006</v>
       </c>
       <c r="X28" s="108"/>
@@ -4563,19 +4511,19 @@
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="9">
-        <f t="shared" ref="Q29:Q31" si="6">IF(SUM(D29:I29)&gt;0.95,D29*J29+E29*K29+F29*L29+G29*M29+H29*N29+I29*O29,"")</f>
+        <f t="shared" ref="Q29:Q31" si="7">IF(SUM(D29:I29)&gt;0.95,D29*J29+E29*K29+F29*L29+G29*M29+H29*N29+I29*O29,"")</f>
         <v>9.18</v>
       </c>
       <c r="R29" s="108"/>
       <c r="S29" s="14"/>
       <c r="T29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U29" s="23"/>
       <c r="V29" s="12"/>
       <c r="W29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.18</v>
       </c>
       <c r="X29" s="108"/>
@@ -4629,7 +4577,7 @@
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="R30" s="108"/>
@@ -4695,7 +4643,7 @@
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.21</v>
       </c>
       <c r="R31" s="108"/>
@@ -4707,7 +4655,7 @@
       <c r="U31" s="23"/>
       <c r="V31" s="12"/>
       <c r="W31" s="9">
-        <f t="shared" ref="W31:W32" si="7">IF(SUM(D31:I31)&gt;0.95,Q31+T31,"")</f>
+        <f t="shared" ref="W31:W32" si="8">IF(SUM(D31:I31)&gt;0.95,Q31+T31,"")</f>
         <v>11.21</v>
       </c>
       <c r="X31" s="108"/>
@@ -4773,7 +4721,7 @@
       <c r="U32" s="126"/>
       <c r="V32" s="13"/>
       <c r="W32" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.100000000000001</v>
       </c>
       <c r="X32" s="127"/>
@@ -4839,7 +4787,7 @@
       <c r="U33" s="106"/>
       <c r="V33" s="11"/>
       <c r="W33" s="105">
-        <f>IF(SUM(D33:I33)&gt;0.95,Q33+T33,"")</f>
+        <f t="shared" ref="W33:W44" si="9">IF(SUM(D33:I33)&gt;0.95,Q33+T33,"")</f>
         <v>2.9649999999999999</v>
       </c>
       <c r="X33" s="107"/>
@@ -4912,7 +4860,7 @@
       <c r="U34" s="23"/>
       <c r="V34" s="12"/>
       <c r="W34" s="9">
-        <f>IF(SUM(D34:I34)&gt;0.95,Q34+T34,"")</f>
+        <f t="shared" si="9"/>
         <v>6.5207999999999995</v>
       </c>
       <c r="X34" s="108"/>
@@ -4984,13 +4932,13 @@
       <c r="R35" s="108"/>
       <c r="S35" s="14"/>
       <c r="T35" s="9">
-        <f t="shared" ref="T34:T50" si="8">D35*$Z$15+E35*$Z$16+F35*$Z$17+G35*$Z$18+H35*$Z$19+I35*$Z$20</f>
+        <f t="shared" ref="T35:T50" si="10">D35*$Z$15+E35*$Z$16+F35*$Z$17+G35*$Z$18+H35*$Z$19+I35*$Z$20</f>
         <v>7.4310000000000009</v>
       </c>
       <c r="U35" s="23"/>
       <c r="V35" s="12"/>
       <c r="W35" s="9">
-        <f>IF(SUM(D35:I35)&gt;0.95,Q35+T35,"")</f>
+        <f t="shared" si="9"/>
         <v>13.240500000000001</v>
       </c>
       <c r="X35" s="108"/>
@@ -5002,7 +4950,7 @@
       <c r="AA35" s="108"/>
       <c r="AB35" s="89"/>
       <c r="AC35" s="88">
-        <f t="shared" ref="AC35" si="9">Z35-Z17</f>
+        <f t="shared" ref="AC35" si="11">Z35-Z17</f>
         <v>1.5228000000000002</v>
       </c>
     </row>
@@ -5051,19 +4999,19 @@
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="9">
-        <f t="shared" ref="Q36:Q37" si="10">IF(SUM(D36:I36)&gt;0.95,D36*J36+E36*K36+F36*L36+G36*M36+H36*N36+I36*O36,"")</f>
+        <f t="shared" ref="Q36:Q37" si="12">IF(SUM(D36:I36)&gt;0.95,D36*J36+E36*K36+F36*L36+G36*M36+H36*N36+I36*O36,"")</f>
         <v>13.3415</v>
       </c>
       <c r="R36" s="108"/>
       <c r="S36" s="14"/>
       <c r="T36" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.7849</v>
       </c>
       <c r="U36" s="23"/>
       <c r="V36" s="12"/>
       <c r="W36" s="9">
-        <f>IF(SUM(D36:I36)&gt;0.95,Q36+T36,"")</f>
+        <f t="shared" si="9"/>
         <v>24.1264</v>
       </c>
       <c r="X36" s="108"/>
@@ -5124,19 +5072,19 @@
       </c>
       <c r="P37" s="119"/>
       <c r="Q37" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32.22</v>
       </c>
       <c r="R37" s="120"/>
       <c r="S37" s="117"/>
       <c r="T37" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.899500000000003</v>
       </c>
       <c r="U37" s="118"/>
       <c r="V37" s="119"/>
       <c r="W37" s="9">
-        <f>IF(SUM(D37:I37)&gt;0.95,Q37+T37,"")</f>
+        <f t="shared" si="9"/>
         <v>46.119500000000002</v>
       </c>
       <c r="X37" s="120"/>
@@ -5148,7 +5096,7 @@
       <c r="AA37" s="108"/>
       <c r="AB37" s="89"/>
       <c r="AC37" s="88">
-        <f t="shared" ref="AC37:AC38" si="11">Z37-Z19</f>
+        <f>Z37-Z19</f>
         <v>0.6899999999999995</v>
       </c>
     </row>
@@ -5203,13 +5151,13 @@
       <c r="R38" s="113"/>
       <c r="S38" s="109"/>
       <c r="T38" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.69</v>
       </c>
       <c r="U38" s="111"/>
       <c r="V38" s="112"/>
       <c r="W38" s="110">
-        <f>IF(SUM(D38:I38)&gt;0.95,Q38+T38,"")</f>
+        <f t="shared" si="9"/>
         <v>16.790000000000003</v>
       </c>
       <c r="X38" s="113"/>
@@ -5221,7 +5169,7 @@
       <c r="AA38" s="108"/>
       <c r="AB38" s="89"/>
       <c r="AC38" s="88">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AC37:AC38" si="13">Z38-Z20</f>
         <v>0.69000000000000128</v>
       </c>
     </row>
@@ -5276,13 +5224,13 @@
       <c r="R39" s="116"/>
       <c r="S39" s="114"/>
       <c r="T39" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.2749999999999999</v>
       </c>
       <c r="U39" s="44"/>
       <c r="V39" s="115"/>
       <c r="W39" s="15">
-        <f>IF(SUM(D39:I39)&gt;0.95,Q39+T39,"")</f>
+        <f t="shared" si="9"/>
         <v>2.9649999999999999</v>
       </c>
       <c r="X39" s="116"/>
@@ -5345,13 +5293,13 @@
       <c r="R40" s="108"/>
       <c r="S40" s="14"/>
       <c r="T40" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.69</v>
       </c>
       <c r="U40" s="23"/>
       <c r="V40" s="12"/>
       <c r="W40" s="9">
-        <f>IF(SUM(D40:I40)&gt;0.95,Q40+T40,"")</f>
+        <f t="shared" si="9"/>
         <v>5.41</v>
       </c>
       <c r="X40" s="108"/>
@@ -5408,7 +5356,7 @@
       </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="9">
-        <f t="shared" ref="Q41:Q43" si="12">IF(SUM(D41:I41)&gt;0.95,D41*J41+E41*K41+F41*L41+G41*M41+H41*N41+I41*O41,"")</f>
+        <f t="shared" ref="Q41:Q43" si="14">IF(SUM(D41:I41)&gt;0.95,D41*J41+E41*K41+F41*L41+G41*M41+H41*N41+I41*O41,"")</f>
         <v>5.6419999999999995</v>
       </c>
       <c r="R41" s="108"/>
@@ -5420,7 +5368,7 @@
       <c r="U41" s="23"/>
       <c r="V41" s="12"/>
       <c r="W41" s="9">
-        <f>IF(SUM(D41:I41)&gt;0.95,Q41+T41,"")</f>
+        <f t="shared" si="9"/>
         <v>7.1647999999999996</v>
       </c>
       <c r="X41" s="108"/>
@@ -5474,19 +5422,19 @@
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.4640000000000004</v>
       </c>
       <c r="R42" s="108"/>
       <c r="S42" s="14"/>
       <c r="T42" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.2164000000000001</v>
       </c>
       <c r="U42" s="23"/>
       <c r="V42" s="12"/>
       <c r="W42" s="9">
-        <f>IF(SUM(D42:I42)&gt;0.95,Q42+T42,"")</f>
+        <f t="shared" si="9"/>
         <v>12.680400000000001</v>
       </c>
       <c r="X42" s="108"/>
@@ -5540,19 +5488,19 @@
       </c>
       <c r="P43" s="119"/>
       <c r="Q43" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16.135999999999999</v>
       </c>
       <c r="R43" s="120"/>
       <c r="S43" s="117"/>
       <c r="T43" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.3352000000000004</v>
       </c>
       <c r="U43" s="118"/>
       <c r="V43" s="119"/>
       <c r="W43" s="9">
-        <f>IF(SUM(D43:I43)&gt;0.95,Q43+T43,"")</f>
+        <f t="shared" si="9"/>
         <v>23.4712</v>
       </c>
       <c r="X43" s="120"/>
@@ -5613,13 +5561,13 @@
       <c r="R44" s="120"/>
       <c r="S44" s="117"/>
       <c r="T44" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.69</v>
       </c>
       <c r="U44" s="118"/>
       <c r="V44" s="119"/>
       <c r="W44" s="21">
-        <f>IF(SUM(D44:I44)&gt;0.95,Q44+T44,"")</f>
+        <f t="shared" si="9"/>
         <v>16.790000000000003</v>
       </c>
       <c r="X44" s="120"/>
@@ -5684,8 +5632,8 @@
       </c>
       <c r="U45" s="121"/>
       <c r="V45" s="122"/>
-      <c r="W45" s="150">
-        <f t="shared" ref="W45:W47" si="13">IF(SUM(D45:I45)&gt;0.95,Q45+T45,"")</f>
+      <c r="W45" s="148">
+        <f t="shared" ref="W45:W47" si="15">IF(SUM(D45:I45)&gt;0.95,Q45+T45,"")</f>
         <v>2.9649999999999999</v>
       </c>
       <c r="X45" s="123"/>
@@ -5745,13 +5693,13 @@
       <c r="R46" s="108"/>
       <c r="S46" s="14"/>
       <c r="T46" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.69</v>
       </c>
       <c r="U46" s="23"/>
       <c r="V46" s="12"/>
       <c r="W46" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.41</v>
       </c>
       <c r="X46" s="108"/>
@@ -5808,7 +5756,7 @@
       </c>
       <c r="P47" s="12"/>
       <c r="Q47" s="9">
-        <f t="shared" ref="Q47:Q49" si="14">IF(SUM(D47:I47)&gt;0.95,D47*J47+E47*K47+F47*L47+G47*M47+H47*N47+I47*O47,"")</f>
+        <f t="shared" ref="Q47:Q49" si="16">IF(SUM(D47:I47)&gt;0.95,D47*J47+E47*K47+F47*L47+G47*M47+H47*N47+I47*O47,"")</f>
         <v>9.18</v>
       </c>
       <c r="R47" s="108"/>
@@ -5820,7 +5768,7 @@
       <c r="U47" s="23"/>
       <c r="V47" s="12"/>
       <c r="W47" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.8699999999999992</v>
       </c>
       <c r="X47" s="108"/>
@@ -5874,13 +5822,13 @@
       </c>
       <c r="P48" s="12"/>
       <c r="Q48" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="R48" s="108"/>
       <c r="S48" s="14"/>
       <c r="T48" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.69</v>
       </c>
       <c r="U48" s="23"/>
@@ -5940,19 +5888,19 @@
       </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.21</v>
       </c>
       <c r="R49" s="108"/>
       <c r="S49" s="14"/>
       <c r="T49" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.69</v>
       </c>
       <c r="U49" s="23"/>
       <c r="V49" s="12"/>
       <c r="W49" s="9">
-        <f t="shared" ref="W49:W50" si="15">IF(SUM(D49:I49)&gt;0.95,Q49+T49,"")</f>
+        <f t="shared" ref="W49:W50" si="17">IF(SUM(D49:I49)&gt;0.95,Q49+T49,"")</f>
         <v>11.9</v>
       </c>
       <c r="X49" s="108"/>
@@ -6012,13 +5960,13 @@
       <c r="R50" s="127"/>
       <c r="S50" s="128"/>
       <c r="T50" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.69</v>
       </c>
       <c r="U50" s="126"/>
       <c r="V50" s="13"/>
       <c r="W50" s="125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>16.790000000000003</v>
       </c>
       <c r="X50" s="127"/>
@@ -6084,7 +6032,7 @@
       <c r="U51" s="106"/>
       <c r="V51" s="11"/>
       <c r="W51" s="105">
-        <f>IF(SUM(D51:I51)&gt;0.95,Q51+T51,"")</f>
+        <f t="shared" ref="W51:W62" si="18">IF(SUM(D51:I51)&gt;0.95,Q51+T51,"")</f>
         <v>5.3162000000000003</v>
       </c>
       <c r="X51" s="107"/>
@@ -6157,7 +6105,7 @@
       <c r="U52" s="23"/>
       <c r="V52" s="12"/>
       <c r="W52" s="9">
-        <f>IF(SUM(D52:I52)&gt;0.95,Q52+T52,"")</f>
+        <f t="shared" si="18"/>
         <v>9.2859800000000003</v>
       </c>
       <c r="X52" s="108"/>
@@ -6235,7 +6183,7 @@
       <c r="U53" s="23"/>
       <c r="V53" s="12"/>
       <c r="W53" s="9">
-        <f>IF(SUM(D53:I53)&gt;0.95,Q53+T53,"")</f>
+        <f t="shared" si="18"/>
         <v>15.349640000000001</v>
       </c>
       <c r="X53" s="108"/>
@@ -6247,7 +6195,7 @@
       <c r="AA53" s="108"/>
       <c r="AB53" s="89"/>
       <c r="AC53" s="88">
-        <f t="shared" ref="AC53" si="16">Z53-Z35</f>
+        <f t="shared" ref="AC53" si="19">Z53-Z35</f>
         <v>2.9092000000000002</v>
       </c>
     </row>
@@ -6296,7 +6244,7 @@
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="9">
-        <f t="shared" ref="Q54:Q55" si="17">IF(SUM(D54:I54)&gt;0.95,D54*J54+E54*K54+F54*L54+G54*M54+H54*N54+I54*O54,"")</f>
+        <f t="shared" ref="Q54:Q55" si="20">IF(SUM(D54:I54)&gt;0.95,D54*J54+E54*K54+F54*L54+G54*M54+H54*N54+I54*O54,"")</f>
         <v>13.3415</v>
       </c>
       <c r="R54" s="108"/>
@@ -6308,20 +6256,20 @@
       <c r="U54" s="23"/>
       <c r="V54" s="12"/>
       <c r="W54" s="9">
-        <f>IF(SUM(D54:I54)&gt;0.95,Q54+T54,"")</f>
+        <f t="shared" si="18"/>
         <v>26.463999999999999</v>
       </c>
       <c r="X54" s="108"/>
       <c r="Y54" s="14"/>
       <c r="Z54" s="9">
-        <f>IF(OR(SUM(D54:I54)&gt;0.95,SUM(D60:I60)&gt;0.95,SUM(D67:I67)&gt;0.95),IF($I$5="min",MIN(W54,W60,W67),MAX(W54,W60,W67)),"")</f>
-        <v>14.175000000000001</v>
+        <f>IF(OR(SUM(D54:I54)&gt;0.95,SUM(D60:I60)&gt;0.95,SUM(D67:I67)&gt;0.95),IF($I$5="min",MIN(W54,W60,W68),MAX(W54,W60,W68)),"")</f>
+        <v>14.926880000000001</v>
       </c>
       <c r="AA54" s="108"/>
       <c r="AB54" s="89"/>
       <c r="AC54" s="88">
         <f>Z54-Z36</f>
-        <v>2.2750000000000004</v>
+        <v>3.0268800000000002</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6369,7 +6317,7 @@
       </c>
       <c r="P55" s="119"/>
       <c r="Q55" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>32.22</v>
       </c>
       <c r="R55" s="120"/>
@@ -6381,7 +6329,7 @@
       <c r="U55" s="118"/>
       <c r="V55" s="119"/>
       <c r="W55" s="9">
-        <f>IF(SUM(D55:I55)&gt;0.95,Q55+T55,"")</f>
+        <f t="shared" si="18"/>
         <v>46.8095</v>
       </c>
       <c r="X55" s="120"/>
@@ -6393,7 +6341,7 @@
       <c r="AA55" s="108"/>
       <c r="AB55" s="89"/>
       <c r="AC55" s="88">
-        <f t="shared" ref="AC55:AC56" si="18">Z55-Z37</f>
+        <f t="shared" ref="AC55:AC56" si="21">Z55-Z37</f>
         <v>2.2750000000000004</v>
       </c>
     </row>
@@ -6454,7 +6402,7 @@
       <c r="U56" s="111"/>
       <c r="V56" s="112"/>
       <c r="W56" s="110">
-        <f>IF(SUM(D56:I56)&gt;0.95,Q56+T56,"")</f>
+        <f t="shared" si="18"/>
         <v>19.065000000000001</v>
       </c>
       <c r="X56" s="113"/>
@@ -6466,7 +6414,7 @@
       <c r="AA56" s="108"/>
       <c r="AB56" s="89"/>
       <c r="AC56" s="88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.2749999999999986</v>
       </c>
     </row>
@@ -6527,7 +6475,7 @@
       <c r="U57" s="44"/>
       <c r="V57" s="115"/>
       <c r="W57" s="15">
-        <f>IF(SUM(D57:I57)&gt;0.95,Q57+T57,"")</f>
+        <f t="shared" si="18"/>
         <v>5.3162000000000003</v>
       </c>
       <c r="X57" s="116"/>
@@ -6596,7 +6544,7 @@
       <c r="U58" s="23"/>
       <c r="V58" s="12"/>
       <c r="W58" s="9">
-        <f>IF(SUM(D58:I58)&gt;0.95,Q58+T58,"")</f>
+        <f t="shared" si="18"/>
         <v>7.6849999999999996</v>
       </c>
       <c r="X58" s="108"/>
@@ -6653,7 +6601,7 @@
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="9">
-        <f t="shared" ref="Q59:Q61" si="19">IF(SUM(D59:I59)&gt;0.95,D59*J59+E59*K59+F59*L59+G59*M59+H59*N59+I59*O59,"")</f>
+        <f t="shared" ref="Q59:Q61" si="22">IF(SUM(D59:I59)&gt;0.95,D59*J59+E59*K59+F59*L59+G59*M59+H59*N59+I59*O59,"")</f>
         <v>5.6419999999999995</v>
       </c>
       <c r="R59" s="108"/>
@@ -6665,7 +6613,7 @@
       <c r="U59" s="23"/>
       <c r="V59" s="12"/>
       <c r="W59" s="9">
-        <f>IF(SUM(D59:I59)&gt;0.95,Q59+T59,"")</f>
+        <f t="shared" si="18"/>
         <v>10.074</v>
       </c>
       <c r="X59" s="108"/>
@@ -6719,7 +6667,7 @@
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.4640000000000004</v>
       </c>
       <c r="R60" s="108"/>
@@ -6731,7 +6679,7 @@
       <c r="U60" s="23"/>
       <c r="V60" s="12"/>
       <c r="W60" s="9">
-        <f>IF(SUM(D60:I60)&gt;0.95,Q60+T60,"")</f>
+        <f t="shared" si="18"/>
         <v>14.926880000000001</v>
       </c>
       <c r="X60" s="108"/>
@@ -6785,7 +6733,7 @@
       </c>
       <c r="P61" s="119"/>
       <c r="Q61" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>16.135999999999999</v>
       </c>
       <c r="R61" s="120"/>
@@ -6797,7 +6745,7 @@
       <c r="U61" s="118"/>
       <c r="V61" s="119"/>
       <c r="W61" s="9">
-        <f>IF(SUM(D61:I61)&gt;0.95,Q61+T61,"")</f>
+        <f t="shared" si="18"/>
         <v>26.141919999999999</v>
       </c>
       <c r="X61" s="120"/>
@@ -6863,7 +6811,7 @@
       <c r="U62" s="118"/>
       <c r="V62" s="119"/>
       <c r="W62" s="21">
-        <f>IF(SUM(D62:I62)&gt;0.95,Q62+T62,"")</f>
+        <f t="shared" si="18"/>
         <v>19.065000000000001</v>
       </c>
       <c r="X62" s="120"/>
@@ -6928,8 +6876,8 @@
       </c>
       <c r="U63" s="121"/>
       <c r="V63" s="122"/>
-      <c r="W63" s="150">
-        <f t="shared" ref="W63:W65" si="20">IF(SUM(D63:I63)&gt;0.95,Q63+T63,"")</f>
+      <c r="W63" s="148">
+        <f t="shared" ref="W63:W65" si="23">IF(SUM(D63:I63)&gt;0.95,Q63+T63,"")</f>
         <v>5.3162000000000003</v>
       </c>
       <c r="X63" s="123"/>
@@ -6995,7 +6943,7 @@
       <c r="U64" s="23"/>
       <c r="V64" s="12"/>
       <c r="W64" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>11.685</v>
       </c>
       <c r="X64" s="108"/>
@@ -7052,7 +7000,7 @@
       </c>
       <c r="P65" s="12"/>
       <c r="Q65" s="9">
-        <f t="shared" ref="Q65:Q67" si="21">IF(SUM(D65:I65)&gt;0.95,D65*J65+E65*K65+F65*L65+G65*M65+H65*N65+I65*O65,"")</f>
+        <f t="shared" ref="Q65:Q67" si="24">IF(SUM(D65:I65)&gt;0.95,D65*J65+E65*K65+F65*L65+G65*M65+H65*N65+I65*O65,"")</f>
         <v>9.18</v>
       </c>
       <c r="R65" s="108"/>
@@ -7064,7 +7012,7 @@
       <c r="U65" s="23"/>
       <c r="V65" s="12"/>
       <c r="W65" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12.145</v>
       </c>
       <c r="X65" s="108"/>
@@ -7118,7 +7066,7 @@
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="R66" s="108"/>
@@ -7184,7 +7132,7 @@
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>11.21</v>
       </c>
       <c r="R67" s="108"/>
@@ -7196,7 +7144,7 @@
       <c r="U67" s="23"/>
       <c r="V67" s="12"/>
       <c r="W67" s="9">
-        <f t="shared" ref="W67:W68" si="22">IF(SUM(D67:I67)&gt;0.95,Q67+T67,"")</f>
+        <f t="shared" ref="W67:W83" si="25">IF(SUM(D67:I67)&gt;0.95,Q67+T67,"")</f>
         <v>14.175000000000001</v>
       </c>
       <c r="X67" s="108"/>
@@ -7262,7 +7210,7 @@
       <c r="U68" s="126"/>
       <c r="V68" s="13"/>
       <c r="W68" s="125">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.065000000000001</v>
       </c>
       <c r="X68" s="127"/>
@@ -7328,7 +7276,7 @@
       <c r="U69" s="106"/>
       <c r="V69" s="11"/>
       <c r="W69" s="105">
-        <f>IF(SUM(D69:I69)&gt;0.95,Q69+T69,"")</f>
+        <f t="shared" si="25"/>
         <v>7.7878499999999988</v>
       </c>
       <c r="X69" s="107"/>
@@ -7396,13 +7344,13 @@
       <c r="S70" s="14"/>
       <c r="T70" s="9">
         <f>D70*Z51+E70*Z52+F70*Z53+G70*Z54+H70*Z55+I70*Z56</f>
-        <v>9.5464000000000002</v>
+        <v>9.6215879999999991</v>
       </c>
       <c r="U70" s="23"/>
       <c r="V70" s="12"/>
       <c r="W70" s="9">
-        <f>IF(SUM(D70:I70)&gt;0.95,Q70+T70,"")</f>
-        <v>11.6244</v>
+        <f t="shared" si="25"/>
+        <v>11.699587999999999</v>
       </c>
       <c r="X70" s="108"/>
       <c r="Y70" s="14"/>
@@ -7474,13 +7422,13 @@
       <c r="S71" s="14"/>
       <c r="T71" s="9">
         <f>D71*Z51+E71*Z52+F71*Z53+G71*Z54+H71*Z55+I71*Z56</f>
-        <v>12.163950000000002</v>
+        <v>12.427108</v>
       </c>
       <c r="U71" s="23"/>
       <c r="V71" s="12"/>
       <c r="W71" s="9">
-        <f>IF(SUM(D71:I71)&gt;0.95,Q71+T71,"")</f>
-        <v>17.97345</v>
+        <f t="shared" si="25"/>
+        <v>18.236608</v>
       </c>
       <c r="X71" s="108"/>
       <c r="Y71" s="14"/>
@@ -7491,7 +7439,7 @@
       <c r="AA71" s="108"/>
       <c r="AB71" s="89"/>
       <c r="AC71" s="88">
-        <f t="shared" ref="AC71" si="23">Z71-Z53</f>
+        <f t="shared" ref="AC71" si="26">Z71-Z53</f>
         <v>2.3054799999999993</v>
       </c>
     </row>
@@ -7540,32 +7488,32 @@
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="9">
-        <f t="shared" ref="Q72:Q73" si="24">IF(SUM(D72:I72)&gt;0.95,D72*J72+E72*K72+F72*L72+G72*M72+H72*N72+I72*O72,"")</f>
+        <f t="shared" ref="Q72:Q73" si="27">IF(SUM(D72:I72)&gt;0.95,D72*J72+E72*K72+F72*L72+G72*M72+H72*N72+I72*O72,"")</f>
         <v>13.3415</v>
       </c>
       <c r="R72" s="108"/>
       <c r="S72" s="14"/>
       <c r="T72" s="9">
         <f>D72*Z51+E72*Z52+F72*Z53+G72*Z54+H72*Z55+I72*Z56</f>
-        <v>15.397500000000001</v>
+        <v>15.848628000000001</v>
       </c>
       <c r="U72" s="23"/>
       <c r="V72" s="12"/>
       <c r="W72" s="9">
-        <f>IF(SUM(D72:I72)&gt;0.95,Q72+T72,"")</f>
-        <v>28.739000000000001</v>
+        <f t="shared" si="25"/>
+        <v>29.190128000000001</v>
       </c>
       <c r="X72" s="108"/>
       <c r="Y72" s="14"/>
       <c r="Z72" s="9">
-        <f>IF(OR(SUM(D72:I72)&gt;0.95,SUM(D78:I78)&gt;0.95,SUM(D85:I85)&gt;0.95),IF($I$5="min",MIN(W72,W78,W85),MAX(W72,W78,W85)),"")</f>
-        <v>16.526200000000003</v>
+        <f>IF(OR(SUM(D72:I72)&gt;0.95,SUM(D78:I78)&gt;0.95,SUM(D85:I85)&gt;0.95),IF($I$5="min",MIN(W72,W78,W86),MAX(W72,W78,W86)),"")</f>
+        <v>17.5824</v>
       </c>
       <c r="AA72" s="108"/>
       <c r="AB72" s="89"/>
       <c r="AC72" s="88">
         <f>Z72-Z54</f>
-        <v>2.3512000000000022</v>
+        <v>2.6555199999999992</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7613,7 +7561,7 @@
       </c>
       <c r="P73" s="119"/>
       <c r="Q73" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>32.22</v>
       </c>
       <c r="R73" s="120"/>
@@ -7625,7 +7573,7 @@
       <c r="U73" s="118"/>
       <c r="V73" s="119"/>
       <c r="W73" s="9">
-        <f>IF(SUM(D73:I73)&gt;0.95,Q73+T73,"")</f>
+        <f t="shared" si="25"/>
         <v>49.084499999999998</v>
       </c>
       <c r="X73" s="120"/>
@@ -7637,7 +7585,7 @@
       <c r="AA73" s="108"/>
       <c r="AB73" s="89"/>
       <c r="AC73" s="88">
-        <f t="shared" ref="AC73:AC74" si="25">Z73-Z55</f>
+        <f t="shared" ref="AC73:AC74" si="28">Z73-Z55</f>
         <v>2.3512000000000022</v>
       </c>
     </row>
@@ -7698,7 +7646,7 @@
       <c r="U74" s="111"/>
       <c r="V74" s="112"/>
       <c r="W74" s="110">
-        <f>IF(SUM(D74:I74)&gt;0.95,Q74+T74,"")</f>
+        <f t="shared" si="25"/>
         <v>21.416200000000003</v>
       </c>
       <c r="X74" s="113"/>
@@ -7710,7 +7658,7 @@
       <c r="AA74" s="108"/>
       <c r="AB74" s="89"/>
       <c r="AC74" s="88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>2.3512000000000022</v>
       </c>
     </row>
@@ -7771,7 +7719,7 @@
       <c r="U75" s="44"/>
       <c r="V75" s="115"/>
       <c r="W75" s="15">
-        <f>IF(SUM(D75:I75)&gt;0.95,Q75+T75,"")</f>
+        <f t="shared" si="25"/>
         <v>7.7878499999999988</v>
       </c>
       <c r="X75" s="116"/>
@@ -7840,7 +7788,7 @@
       <c r="U76" s="23"/>
       <c r="V76" s="12"/>
       <c r="W76" s="9">
-        <f>IF(SUM(D76:I76)&gt;0.95,Q76+T76,"")</f>
+        <f t="shared" si="25"/>
         <v>10.036200000000001</v>
       </c>
       <c r="X76" s="108"/>
@@ -7897,7 +7845,7 @@
       </c>
       <c r="P77" s="12"/>
       <c r="Q77" s="9">
-        <f t="shared" ref="Q77:Q79" si="26">IF(SUM(D77:I77)&gt;0.95,D77*J77+E77*K77+F77*L77+G77*M77+H77*N77+I77*O77,"")</f>
+        <f t="shared" ref="Q77:Q79" si="29">IF(SUM(D77:I77)&gt;0.95,D77*J77+E77*K77+F77*L77+G77*M77+H77*N77+I77*O77,"")</f>
         <v>5.6419999999999995</v>
       </c>
       <c r="R77" s="108"/>
@@ -7909,7 +7857,7 @@
       <c r="U77" s="23"/>
       <c r="V77" s="12"/>
       <c r="W77" s="9">
-        <f>IF(SUM(D77:I77)&gt;0.95,Q77+T77,"")</f>
+        <f t="shared" si="25"/>
         <v>12.379479999999999</v>
       </c>
       <c r="X77" s="108"/>
@@ -7963,7 +7911,7 @@
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8.4640000000000004</v>
       </c>
       <c r="R78" s="108"/>
@@ -7975,7 +7923,7 @@
       <c r="U78" s="23"/>
       <c r="V78" s="12"/>
       <c r="W78" s="9">
-        <f>IF(SUM(D78:I78)&gt;0.95,Q78+T78,"")</f>
+        <f t="shared" si="25"/>
         <v>17.5824</v>
       </c>
       <c r="X78" s="108"/>
@@ -8029,20 +7977,20 @@
       </c>
       <c r="P79" s="119"/>
       <c r="Q79" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>16.135999999999999</v>
       </c>
       <c r="R79" s="120"/>
       <c r="S79" s="117"/>
       <c r="T79" s="9">
         <f>D79*Z51+E79*Z52+F79*Z53+G79*Z54+H79*Z55+I79*Z56</f>
-        <v>12.534600000000001</v>
+        <v>12.985728</v>
       </c>
       <c r="U79" s="118"/>
       <c r="V79" s="119"/>
       <c r="W79" s="9">
-        <f>IF(SUM(D79:I79)&gt;0.95,Q79+T79,"")</f>
-        <v>28.6706</v>
+        <f t="shared" si="25"/>
+        <v>29.121727999999997</v>
       </c>
       <c r="X79" s="120"/>
       <c r="Y79" s="117"/>
@@ -8107,7 +8055,7 @@
       <c r="U80" s="118"/>
       <c r="V80" s="119"/>
       <c r="W80" s="21">
-        <f>IF(SUM(D80:I80)&gt;0.95,Q80+T80,"")</f>
+        <f t="shared" si="25"/>
         <v>21.416200000000003</v>
       </c>
       <c r="X80" s="120"/>
@@ -8172,8 +8120,8 @@
       </c>
       <c r="U81" s="121"/>
       <c r="V81" s="122"/>
-      <c r="W81" s="150">
-        <f t="shared" ref="W81:W83" si="27">IF(SUM(D81:I81)&gt;0.95,Q81+T81,"")</f>
+      <c r="W81" s="148">
+        <f t="shared" si="25"/>
         <v>7.7878499999999988</v>
       </c>
       <c r="X81" s="123"/>
@@ -8239,7 +8187,7 @@
       <c r="U82" s="23"/>
       <c r="V82" s="12"/>
       <c r="W82" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>14.036200000000001</v>
       </c>
       <c r="X82" s="108"/>
@@ -8296,7 +8244,7 @@
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="9">
-        <f t="shared" ref="Q83:Q85" si="28">IF(SUM(D83:I83)&gt;0.95,D83*J83+E83*K83+F83*L83+G83*M83+H83*N83+I83*O83,"")</f>
+        <f t="shared" ref="Q83:Q85" si="30">IF(SUM(D83:I83)&gt;0.95,D83*J83+E83*K83+F83*L83+G83*M83+H83*N83+I83*O83,"")</f>
         <v>9.18</v>
       </c>
       <c r="R83" s="108"/>
@@ -8308,7 +8256,7 @@
       <c r="U83" s="23"/>
       <c r="V83" s="12"/>
       <c r="W83" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>14.4962</v>
       </c>
       <c r="X83" s="108"/>
@@ -8362,7 +8310,7 @@
       </c>
       <c r="P84" s="12"/>
       <c r="Q84" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="R84" s="108"/>
@@ -8428,7 +8376,7 @@
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>11.21</v>
       </c>
       <c r="R85" s="108"/>
@@ -8440,7 +8388,7 @@
       <c r="U85" s="23"/>
       <c r="V85" s="12"/>
       <c r="W85" s="9">
-        <f t="shared" ref="W85:W86" si="29">IF(SUM(D85:I85)&gt;0.95,Q85+T85,"")</f>
+        <f t="shared" ref="W85:W101" si="31">IF(SUM(D85:I85)&gt;0.95,Q85+T85,"")</f>
         <v>16.526200000000003</v>
       </c>
       <c r="X85" s="108"/>
@@ -8506,7 +8454,7 @@
       <c r="U86" s="126"/>
       <c r="V86" s="13"/>
       <c r="W86" s="125">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>21.416200000000003</v>
       </c>
       <c r="X86" s="127"/>
@@ -8572,7 +8520,7 @@
       <c r="U87" s="106"/>
       <c r="V87" s="11"/>
       <c r="W87" s="105">
-        <f>IF(SUM(D87:I87)&gt;0.95,Q87+T87,"")</f>
+        <f t="shared" si="31"/>
         <v>10.187844999999999</v>
       </c>
       <c r="X87" s="107"/>
@@ -8640,13 +8588,13 @@
       <c r="S88" s="14"/>
       <c r="T88" s="9">
         <f>D88*Z69+E88*Z70+F88*Z71+G88*Z72+H88*Z73+I88*Z74</f>
-        <v>11.893028000000001</v>
+        <v>11.998648000000001</v>
       </c>
       <c r="U88" s="23"/>
       <c r="V88" s="12"/>
       <c r="W88" s="9">
-        <f>IF(SUM(D88:I88)&gt;0.95,Q88+T88,"")</f>
-        <v>13.971028</v>
+        <f t="shared" si="31"/>
+        <v>14.076648</v>
       </c>
       <c r="X88" s="108"/>
       <c r="Y88" s="14"/>
@@ -8718,13 +8666,13 @@
       <c r="S89" s="14"/>
       <c r="T89" s="9">
         <f>D89*Z69+E89*Z70+F89*Z71+G89*Z72+H89*Z73+I89*Z74</f>
-        <v>14.490004000000001</v>
+        <v>14.859674</v>
       </c>
       <c r="U89" s="23"/>
       <c r="V89" s="12"/>
       <c r="W89" s="9">
-        <f>IF(SUM(D89:I89)&gt;0.95,Q89+T89,"")</f>
-        <v>20.299503999999999</v>
+        <f t="shared" si="31"/>
+        <v>20.669173999999998</v>
       </c>
       <c r="X89" s="108"/>
       <c r="Y89" s="14"/>
@@ -8735,7 +8683,7 @@
       <c r="AA89" s="108"/>
       <c r="AB89" s="89"/>
       <c r="AC89" s="88">
-        <f t="shared" ref="AC89" si="30">Z89-Z71</f>
+        <f t="shared" ref="AC89" si="32">Z89-Z71</f>
         <v>2.3993800000000007</v>
       </c>
     </row>
@@ -8784,32 +8732,32 @@
       </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="9">
-        <f t="shared" ref="Q90:Q91" si="31">IF(SUM(D90:I90)&gt;0.95,D90*J90+E90*K90+F90*L90+G90*M90+H90*N90+I90*O90,"")</f>
+        <f t="shared" ref="Q90:Q91" si="33">IF(SUM(D90:I90)&gt;0.95,D90*J90+E90*K90+F90*L90+G90*M90+H90*N90+I90*O90,"")</f>
         <v>13.3415</v>
       </c>
       <c r="R90" s="108"/>
       <c r="S90" s="14"/>
       <c r="T90" s="9">
         <f>D90*Z69+E90*Z70+F90*Z71+G90*Z72+H90*Z73+I90*Z74</f>
-        <v>17.748700000000003</v>
+        <v>18.38242</v>
       </c>
       <c r="U90" s="23"/>
       <c r="V90" s="12"/>
       <c r="W90" s="9">
-        <f>IF(SUM(D90:I90)&gt;0.95,Q90+T90,"")</f>
-        <v>31.090200000000003</v>
+        <f t="shared" si="31"/>
+        <v>31.72392</v>
       </c>
       <c r="X90" s="108"/>
       <c r="Y90" s="14"/>
       <c r="Z90" s="9">
-        <f>IF(OR(SUM(D90:I90)&gt;0.95,SUM(D96:I96)&gt;0.95,SUM(D103:I103)&gt;0.95),IF($I$5="min",MIN(W90,W96,W103),MAX(W90,W96,W103)),"")</f>
-        <v>18.99785</v>
+        <f>IF(OR(SUM(D90:I90)&gt;0.95,SUM(D96:I96)&gt;0.95,SUM(D103:I103)&gt;0.95),IF($I$5="min",MIN(W90,W96,W104),MAX(W90,W96,W104)),"")</f>
+        <v>19.906168000000001</v>
       </c>
       <c r="AA90" s="108"/>
       <c r="AB90" s="89"/>
       <c r="AC90" s="88">
         <f>Z90-Z72</f>
-        <v>2.4716499999999968</v>
+        <v>2.3237680000000012</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8857,7 +8805,7 @@
       </c>
       <c r="P91" s="119"/>
       <c r="Q91" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>32.22</v>
       </c>
       <c r="R91" s="120"/>
@@ -8869,7 +8817,7 @@
       <c r="U91" s="118"/>
       <c r="V91" s="119"/>
       <c r="W91" s="9">
-        <f>IF(SUM(D91:I91)&gt;0.95,Q91+T91,"")</f>
+        <f t="shared" si="31"/>
         <v>51.435700000000004</v>
       </c>
       <c r="X91" s="120"/>
@@ -8881,7 +8829,7 @@
       <c r="AA91" s="108"/>
       <c r="AB91" s="89"/>
       <c r="AC91" s="88">
-        <f t="shared" ref="AC91:AC92" si="32">Z91-Z73</f>
+        <f t="shared" ref="AC91:AC92" si="34">Z91-Z73</f>
         <v>2.4716499999999968</v>
       </c>
     </row>
@@ -8942,7 +8890,7 @@
       <c r="U92" s="111"/>
       <c r="V92" s="112"/>
       <c r="W92" s="110">
-        <f>IF(SUM(D92:I92)&gt;0.95,Q92+T92,"")</f>
+        <f t="shared" si="31"/>
         <v>23.88785</v>
       </c>
       <c r="X92" s="113"/>
@@ -8954,7 +8902,7 @@
       <c r="AA92" s="108"/>
       <c r="AB92" s="89"/>
       <c r="AC92" s="88">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2.4716499999999968</v>
       </c>
     </row>
@@ -9015,7 +8963,7 @@
       <c r="U93" s="44"/>
       <c r="V93" s="115"/>
       <c r="W93" s="15">
-        <f>IF(SUM(D93:I93)&gt;0.95,Q93+T93,"")</f>
+        <f t="shared" si="31"/>
         <v>10.187844999999999</v>
       </c>
       <c r="X93" s="116"/>
@@ -9084,7 +9032,7 @@
       <c r="U94" s="23"/>
       <c r="V94" s="12"/>
       <c r="W94" s="9">
-        <f>IF(SUM(D94:I94)&gt;0.95,Q94+T94,"")</f>
+        <f t="shared" si="31"/>
         <v>12.507849999999998</v>
       </c>
       <c r="X94" s="108"/>
@@ -9141,7 +9089,7 @@
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="9">
-        <f t="shared" ref="Q95:Q97" si="33">IF(SUM(D95:I95)&gt;0.95,D95*J95+E95*K95+F95*L95+G95*M95+H95*N95+I95*O95,"")</f>
+        <f t="shared" ref="Q95:Q97" si="35">IF(SUM(D95:I95)&gt;0.95,D95*J95+E95*K95+F95*L95+G95*M95+H95*N95+I95*O95,"")</f>
         <v>5.6419999999999995</v>
       </c>
       <c r="R95" s="108"/>
@@ -9153,7 +9101,7 @@
       <c r="U95" s="23"/>
       <c r="V95" s="12"/>
       <c r="W95" s="9">
-        <f>IF(SUM(D95:I95)&gt;0.95,Q95+T95,"")</f>
+        <f t="shared" si="31"/>
         <v>14.77886</v>
       </c>
       <c r="X95" s="108"/>
@@ -9207,7 +9155,7 @@
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>8.4640000000000004</v>
       </c>
       <c r="R96" s="108"/>
@@ -9219,7 +9167,7 @@
       <c r="U96" s="23"/>
       <c r="V96" s="12"/>
       <c r="W96" s="9">
-        <f>IF(SUM(D96:I96)&gt;0.95,Q96+T96,"")</f>
+        <f t="shared" si="31"/>
         <v>19.906168000000001</v>
       </c>
       <c r="X96" s="108"/>
@@ -9273,20 +9221,20 @@
       </c>
       <c r="P97" s="119"/>
       <c r="Q97" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>16.135999999999999</v>
       </c>
       <c r="R97" s="120"/>
       <c r="S97" s="117"/>
       <c r="T97" s="9">
         <f>D97*Z69+E97*Z70+F97*Z71+G97*Z72+H97*Z73+I97*Z74</f>
-        <v>14.867512000000001</v>
+        <v>15.501231999999998</v>
       </c>
       <c r="U97" s="118"/>
       <c r="V97" s="119"/>
       <c r="W97" s="9">
-        <f>IF(SUM(D97:I97)&gt;0.95,Q97+T97,"")</f>
-        <v>31.003512000000001</v>
+        <f t="shared" si="31"/>
+        <v>31.637231999999997</v>
       </c>
       <c r="X97" s="120"/>
       <c r="Y97" s="117"/>
@@ -9351,7 +9299,7 @@
       <c r="U98" s="118"/>
       <c r="V98" s="119"/>
       <c r="W98" s="21">
-        <f>IF(SUM(D98:I98)&gt;0.95,Q98+T98,"")</f>
+        <f t="shared" si="31"/>
         <v>23.88785</v>
       </c>
       <c r="X98" s="120"/>
@@ -9416,8 +9364,8 @@
       </c>
       <c r="U99" s="121"/>
       <c r="V99" s="122"/>
-      <c r="W99" s="150">
-        <f t="shared" ref="W99:W101" si="34">IF(SUM(D99:I99)&gt;0.95,Q99+T99,"")</f>
+      <c r="W99" s="148">
+        <f t="shared" si="31"/>
         <v>10.187844999999999</v>
       </c>
       <c r="X99" s="123"/>
@@ -9483,7 +9431,7 @@
       <c r="U100" s="23"/>
       <c r="V100" s="12"/>
       <c r="W100" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>16.507849999999998</v>
       </c>
       <c r="X100" s="108"/>
@@ -9540,7 +9488,7 @@
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="9">
-        <f t="shared" ref="Q101:Q103" si="35">IF(SUM(D101:I101)&gt;0.95,D101*J101+E101*K101+F101*L101+G101*M101+H101*N101+I101*O101,"")</f>
+        <f t="shared" ref="Q101:Q103" si="36">IF(SUM(D101:I101)&gt;0.95,D101*J101+E101*K101+F101*L101+G101*M101+H101*N101+I101*O101,"")</f>
         <v>9.18</v>
       </c>
       <c r="R101" s="108"/>
@@ -9552,7 +9500,7 @@
       <c r="U101" s="23"/>
       <c r="V101" s="12"/>
       <c r="W101" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>16.967849999999999</v>
       </c>
       <c r="X101" s="108"/>
@@ -9606,7 +9554,7 @@
       </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="R102" s="108"/>
@@ -9672,7 +9620,7 @@
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>11.21</v>
       </c>
       <c r="R103" s="108"/>
@@ -9684,7 +9632,7 @@
       <c r="U103" s="23"/>
       <c r="V103" s="12"/>
       <c r="W103" s="9">
-        <f t="shared" ref="W103:W104" si="36">IF(SUM(D103:I103)&gt;0.95,Q103+T103,"")</f>
+        <f t="shared" ref="W103:W119" si="37">IF(SUM(D103:I103)&gt;0.95,Q103+T103,"")</f>
         <v>18.99785</v>
       </c>
       <c r="X103" s="108"/>
@@ -9750,7 +9698,7 @@
       <c r="U104" s="126"/>
       <c r="V104" s="13"/>
       <c r="W104" s="125">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23.88785</v>
       </c>
       <c r="X104" s="127"/>
@@ -9816,7 +9764,7 @@
       <c r="U105" s="106"/>
       <c r="V105" s="11"/>
       <c r="W105" s="105">
-        <f>IF(SUM(D105:I105)&gt;0.95,Q105+T105,"")</f>
+        <f t="shared" si="37"/>
         <v>12.605599999999999</v>
       </c>
       <c r="X105" s="107"/>
@@ -9884,13 +9832,13 @@
       <c r="S106" s="14"/>
       <c r="T106" s="9">
         <f>D106*Z87+E106*Z88+F106*Z89+G106*Z90+H106*Z91+I106*Z92</f>
-        <v>14.357450999999999</v>
+        <v>14.448282799999999</v>
       </c>
       <c r="U106" s="23"/>
       <c r="V106" s="12"/>
       <c r="W106" s="9">
-        <f>IF(SUM(D106:I106)&gt;0.95,Q106+T106,"")</f>
-        <v>16.435451</v>
+        <f t="shared" si="37"/>
+        <v>16.526282800000001</v>
       </c>
       <c r="X106" s="108"/>
       <c r="Y106" s="14"/>
@@ -9962,13 +9910,13 @@
       <c r="S107" s="14"/>
       <c r="T107" s="9">
         <f>D107*Z87+E107*Z88+F107*Z89+G107*Z90+H107*Z91+I107*Z92</f>
-        <v>16.921905500000001</v>
+        <v>17.2398168</v>
       </c>
       <c r="U107" s="23"/>
       <c r="V107" s="12"/>
       <c r="W107" s="9">
-        <f>IF(SUM(D107:I107)&gt;0.95,Q107+T107,"")</f>
-        <v>22.731405500000001</v>
+        <f t="shared" si="37"/>
+        <v>23.0493168</v>
       </c>
       <c r="X107" s="108"/>
       <c r="Y107" s="14"/>
@@ -9979,7 +9927,7 @@
       <c r="AA107" s="108"/>
       <c r="AB107" s="89"/>
       <c r="AC107" s="88">
-        <f t="shared" ref="AC107" si="37">Z107-Z89</f>
+        <f t="shared" ref="AC107" si="38">Z107-Z89</f>
         <v>2.4429879999999979</v>
       </c>
     </row>
@@ -10028,32 +9976,32 @@
       </c>
       <c r="P108" s="12"/>
       <c r="Q108" s="9">
-        <f t="shared" ref="Q108:Q109" si="38">IF(SUM(D108:I108)&gt;0.95,D108*J108+E108*K108+F108*L108+G108*M108+H108*N108+I108*O108,"")</f>
+        <f t="shared" ref="Q108:Q109" si="39">IF(SUM(D108:I108)&gt;0.95,D108*J108+E108*K108+F108*L108+G108*M108+H108*N108+I108*O108,"")</f>
         <v>13.3415</v>
       </c>
       <c r="R108" s="108"/>
       <c r="S108" s="14"/>
       <c r="T108" s="9">
         <f>D108*Z87+E108*Z88+F108*Z89+G108*Z90+H108*Z91+I108*Z92</f>
-        <v>20.22035</v>
+        <v>20.765340800000001</v>
       </c>
       <c r="U108" s="23"/>
       <c r="V108" s="12"/>
       <c r="W108" s="9">
-        <f>IF(SUM(D108:I108)&gt;0.95,Q108+T108,"")</f>
-        <v>33.56185</v>
+        <f t="shared" si="37"/>
+        <v>34.106840800000001</v>
       </c>
       <c r="X108" s="108"/>
       <c r="Y108" s="14"/>
       <c r="Z108" s="9">
-        <f>IF(OR(SUM(D108:I108)&gt;0.95,SUM(D114:I114)&gt;0.95,SUM(D121:I121)&gt;0.95),IF($I$5="min",MIN(W108,W114,W121),MAX(W108,W114,W121)),"")</f>
-        <v>21.397845</v>
+        <f>IF(OR(SUM(D108:I108)&gt;0.95,SUM(D114:I114)&gt;0.95,SUM(D121:I121)&gt;0.95),IF($I$5="min",MIN(W108,W114,W122),MAX(W108,W114,W122)),"")</f>
+        <v>22.334455999999996</v>
       </c>
       <c r="AA108" s="108"/>
       <c r="AB108" s="89"/>
       <c r="AC108" s="88">
         <f>Z108-Z90</f>
-        <v>2.3999950000000005</v>
+        <v>2.4282879999999949</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10101,7 +10049,7 @@
       </c>
       <c r="P109" s="119"/>
       <c r="Q109" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>32.22</v>
       </c>
       <c r="R109" s="120"/>
@@ -10113,7 +10061,7 @@
       <c r="U109" s="118"/>
       <c r="V109" s="119"/>
       <c r="W109" s="9">
-        <f>IF(SUM(D109:I109)&gt;0.95,Q109+T109,"")</f>
+        <f t="shared" si="37"/>
         <v>53.907350000000001</v>
       </c>
       <c r="X109" s="120"/>
@@ -10125,7 +10073,7 @@
       <c r="AA109" s="108"/>
       <c r="AB109" s="89"/>
       <c r="AC109" s="88">
-        <f t="shared" ref="AC109:AC110" si="39">Z109-Z91</f>
+        <f t="shared" ref="AC109:AC110" si="40">Z109-Z91</f>
         <v>2.3999950000000005</v>
       </c>
     </row>
@@ -10186,7 +10134,7 @@
       <c r="U110" s="111"/>
       <c r="V110" s="112"/>
       <c r="W110" s="110">
-        <f>IF(SUM(D110:I110)&gt;0.95,Q110+T110,"")</f>
+        <f t="shared" si="37"/>
         <v>26.287845000000001</v>
       </c>
       <c r="X110" s="113"/>
@@ -10198,7 +10146,7 @@
       <c r="AA110" s="108"/>
       <c r="AB110" s="89"/>
       <c r="AC110" s="88">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2.3999950000000005</v>
       </c>
     </row>
@@ -10259,7 +10207,7 @@
       <c r="U111" s="44"/>
       <c r="V111" s="115"/>
       <c r="W111" s="15">
-        <f>IF(SUM(D111:I111)&gt;0.95,Q111+T111,"")</f>
+        <f t="shared" si="37"/>
         <v>12.605599999999999</v>
       </c>
       <c r="X111" s="116"/>
@@ -10328,7 +10276,7 @@
       <c r="U112" s="23"/>
       <c r="V112" s="12"/>
       <c r="W112" s="9">
-        <f>IF(SUM(D112:I112)&gt;0.95,Q112+T112,"")</f>
+        <f t="shared" si="37"/>
         <v>14.907844999999998</v>
       </c>
       <c r="X112" s="108"/>
@@ -10385,7 +10333,7 @@
       </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="9">
-        <f t="shared" ref="Q113:Q115" si="40">IF(SUM(D113:I113)&gt;0.95,D113*J113+E113*K113+F113*L113+G113*M113+H113*N113+I113*O113,"")</f>
+        <f t="shared" ref="Q113:Q115" si="41">IF(SUM(D113:I113)&gt;0.95,D113*J113+E113*K113+F113*L113+G113*M113+H113*N113+I113*O113,"")</f>
         <v>5.6419999999999995</v>
       </c>
       <c r="R113" s="108"/>
@@ -10397,7 +10345,7 @@
       <c r="U113" s="23"/>
       <c r="V113" s="12"/>
       <c r="W113" s="9">
-        <f>IF(SUM(D113:I113)&gt;0.95,Q113+T113,"")</f>
+        <f t="shared" si="37"/>
         <v>17.221847999999998</v>
       </c>
       <c r="X113" s="108"/>
@@ -10451,7 +10399,7 @@
       </c>
       <c r="P114" s="12"/>
       <c r="Q114" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8.4640000000000004</v>
       </c>
       <c r="R114" s="108"/>
@@ -10463,7 +10411,7 @@
       <c r="U114" s="23"/>
       <c r="V114" s="12"/>
       <c r="W114" s="9">
-        <f>IF(SUM(D114:I114)&gt;0.95,Q114+T114,"")</f>
+        <f t="shared" si="37"/>
         <v>22.334455999999996</v>
       </c>
       <c r="X114" s="108"/>
@@ -10517,20 +10465,20 @@
       </c>
       <c r="P115" s="119"/>
       <c r="Q115" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.135999999999999</v>
       </c>
       <c r="R115" s="120"/>
       <c r="S115" s="117"/>
       <c r="T115" s="9">
         <f>D115*Z87+E115*Z88+F115*Z89+G115*Z90+H115*Z91+I115*Z92</f>
-        <v>17.310254</v>
+        <v>17.855244800000001</v>
       </c>
       <c r="U115" s="118"/>
       <c r="V115" s="119"/>
       <c r="W115" s="9">
-        <f>IF(SUM(D115:I115)&gt;0.95,Q115+T115,"")</f>
-        <v>33.446253999999996</v>
+        <f t="shared" si="37"/>
+        <v>33.991244800000004</v>
       </c>
       <c r="X115" s="120"/>
       <c r="Y115" s="117"/>
@@ -10595,7 +10543,7 @@
       <c r="U116" s="118"/>
       <c r="V116" s="119"/>
       <c r="W116" s="21">
-        <f>IF(SUM(D116:I116)&gt;0.95,Q116+T116,"")</f>
+        <f t="shared" si="37"/>
         <v>26.287845000000001</v>
       </c>
       <c r="X116" s="120"/>
@@ -10660,8 +10608,8 @@
       </c>
       <c r="U117" s="121"/>
       <c r="V117" s="122"/>
-      <c r="W117" s="150">
-        <f t="shared" ref="W117:W119" si="41">IF(SUM(D117:I117)&gt;0.95,Q117+T117,"")</f>
+      <c r="W117" s="148">
+        <f t="shared" si="37"/>
         <v>12.605599999999999</v>
       </c>
       <c r="X117" s="123"/>
@@ -10727,7 +10675,7 @@
       <c r="U118" s="23"/>
       <c r="V118" s="12"/>
       <c r="W118" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>18.907845000000002</v>
       </c>
       <c r="X118" s="108"/>
@@ -10796,7 +10744,7 @@
       <c r="U119" s="23"/>
       <c r="V119" s="12"/>
       <c r="W119" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>19.367844999999999</v>
       </c>
       <c r="X119" s="108"/>
@@ -10928,7 +10876,7 @@
       <c r="U121" s="23"/>
       <c r="V121" s="12"/>
       <c r="W121" s="9">
-        <f t="shared" ref="W121:W122" si="43">IF(SUM(D121:I121)&gt;0.95,Q121+T121,"")</f>
+        <f t="shared" ref="W121:W137" si="43">IF(SUM(D121:I121)&gt;0.95,Q121+T121,"")</f>
         <v>21.397845</v>
       </c>
       <c r="X121" s="108"/>
@@ -11060,7 +11008,7 @@
       <c r="U123" s="106"/>
       <c r="V123" s="11"/>
       <c r="W123" s="105">
-        <f>IF(SUM(D123:I123)&gt;0.95,Q123+T123,"")</f>
+        <f t="shared" si="43"/>
         <v>15.025223249999998</v>
       </c>
       <c r="X123" s="107"/>
@@ -11128,13 +11076,13 @@
       <c r="S124" s="14"/>
       <c r="T124" s="9">
         <f>D124*Z105+E124*Z106+F124*Z107+G124*Z108+H124*Z109+I124*Z110</f>
-        <v>16.761745300000001</v>
+        <v>16.8554064</v>
       </c>
       <c r="U124" s="23"/>
       <c r="V124" s="12"/>
       <c r="W124" s="9">
-        <f>IF(SUM(D124:I124)&gt;0.95,Q124+T124,"")</f>
-        <v>18.839745300000001</v>
+        <f t="shared" si="43"/>
+        <v>18.933406399999999</v>
       </c>
       <c r="X124" s="108"/>
       <c r="Y124" s="14"/>
@@ -11206,13 +11154,13 @@
       <c r="S125" s="14"/>
       <c r="T125" s="9">
         <f>D125*Z105+E125*Z106+F125*Z107+G125*Z108+H125*Z109+I125*Z110</f>
-        <v>19.345546649999999</v>
+        <v>19.673360499999998</v>
       </c>
       <c r="U125" s="23"/>
       <c r="V125" s="12"/>
       <c r="W125" s="9">
-        <f>IF(SUM(D125:I125)&gt;0.95,Q125+T125,"")</f>
-        <v>25.155046649999999</v>
+        <f t="shared" si="43"/>
+        <v>25.482860499999997</v>
       </c>
       <c r="X125" s="108"/>
       <c r="Y125" s="14"/>
@@ -11279,25 +11227,25 @@
       <c r="S126" s="14"/>
       <c r="T126" s="9">
         <f>D126*Z105+E126*Z106+F126*Z107+G126*Z108+H126*Z109+I126*Z110</f>
-        <v>22.620345</v>
+        <v>23.182311599999998</v>
       </c>
       <c r="U126" s="23"/>
       <c r="V126" s="12"/>
       <c r="W126" s="9">
-        <f>IF(SUM(D126:I126)&gt;0.95,Q126+T126,"")</f>
-        <v>35.961844999999997</v>
+        <f t="shared" si="43"/>
+        <v>36.523811600000002</v>
       </c>
       <c r="X126" s="108"/>
       <c r="Y126" s="14"/>
       <c r="Z126" s="9">
-        <f>IF(OR(SUM(D126:I126)&gt;0.95,SUM(D132:I132)&gt;0.95,SUM(D139:I139)&gt;0.95),IF($I$5="min",MIN(W126,W132,W139),MAX(W126,W132,W139)),"")</f>
-        <v>23.8156</v>
+        <f>IF(OR(SUM(D126:I126)&gt;0.95,SUM(D132:I132)&gt;0.95,SUM(D139:I139)&gt;0.95),IF($I$5="min",MIN(W126,W132,W140),MAX(W126,W132,W140)),"")</f>
+        <v>24.760246799999997</v>
       </c>
       <c r="AA126" s="108"/>
       <c r="AB126" s="89"/>
       <c r="AC126" s="88">
         <f>Z126-Z108</f>
-        <v>2.4177549999999997</v>
+        <v>2.4257908000000015</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11357,7 +11305,7 @@
       <c r="U127" s="118"/>
       <c r="V127" s="119"/>
       <c r="W127" s="9">
-        <f>IF(SUM(D127:I127)&gt;0.95,Q127+T127,"")</f>
+        <f t="shared" si="43"/>
         <v>56.307344999999998</v>
       </c>
       <c r="X127" s="120"/>
@@ -11430,7 +11378,7 @@
       <c r="U128" s="111"/>
       <c r="V128" s="112"/>
       <c r="W128" s="110">
-        <f>IF(SUM(D128:I128)&gt;0.95,Q128+T128,"")</f>
+        <f t="shared" si="43"/>
         <v>28.7056</v>
       </c>
       <c r="X128" s="113"/>
@@ -11503,7 +11451,7 @@
       <c r="U129" s="44"/>
       <c r="V129" s="115"/>
       <c r="W129" s="15">
-        <f>IF(SUM(D129:I129)&gt;0.95,Q129+T129,"")</f>
+        <f t="shared" si="43"/>
         <v>15.025223249999998</v>
       </c>
       <c r="X129" s="116"/>
@@ -11572,7 +11520,7 @@
       <c r="U130" s="23"/>
       <c r="V130" s="12"/>
       <c r="W130" s="9">
-        <f>IF(SUM(D130:I130)&gt;0.95,Q130+T130,"")</f>
+        <f t="shared" si="43"/>
         <v>17.325599999999998</v>
       </c>
       <c r="X130" s="108"/>
@@ -11641,7 +11589,7 @@
       <c r="U131" s="23"/>
       <c r="V131" s="12"/>
       <c r="W131" s="9">
-        <f>IF(SUM(D131:I131)&gt;0.95,Q131+T131,"")</f>
+        <f t="shared" si="43"/>
         <v>19.628946999999997</v>
       </c>
       <c r="X131" s="108"/>
@@ -11707,7 +11655,7 @@
       <c r="U132" s="23"/>
       <c r="V132" s="12"/>
       <c r="W132" s="9">
-        <f>IF(SUM(D132:I132)&gt;0.95,Q132+T132,"")</f>
+        <f t="shared" si="43"/>
         <v>24.760246799999997</v>
       </c>
       <c r="X132" s="108"/>
@@ -11768,13 +11716,13 @@
       <c r="S133" s="117"/>
       <c r="T133" s="9">
         <f>D133*Z105+E133*Z106+F133*Z107+G133*Z108+H133*Z109+I133*Z110</f>
-        <v>19.727446199999999</v>
+        <v>20.289412799999997</v>
       </c>
       <c r="U133" s="118"/>
       <c r="V133" s="119"/>
       <c r="W133" s="9">
-        <f>IF(SUM(D133:I133)&gt;0.95,Q133+T133,"")</f>
-        <v>35.863446199999998</v>
+        <f t="shared" si="43"/>
+        <v>36.425412799999997</v>
       </c>
       <c r="X133" s="120"/>
       <c r="Y133" s="117"/>
@@ -11839,7 +11787,7 @@
       <c r="U134" s="118"/>
       <c r="V134" s="119"/>
       <c r="W134" s="21">
-        <f>IF(SUM(D134:I134)&gt;0.95,Q134+T134,"")</f>
+        <f t="shared" si="43"/>
         <v>28.7056</v>
       </c>
       <c r="X134" s="120"/>
@@ -11904,8 +11852,8 @@
       </c>
       <c r="U135" s="121"/>
       <c r="V135" s="122"/>
-      <c r="W135" s="150">
-        <f t="shared" ref="W135:W137" si="48">IF(SUM(D135:I135)&gt;0.95,Q135+T135,"")</f>
+      <c r="W135" s="148">
+        <f t="shared" si="43"/>
         <v>15.025223249999998</v>
       </c>
       <c r="X135" s="123"/>
@@ -11971,7 +11919,7 @@
       <c r="U136" s="23"/>
       <c r="V136" s="12"/>
       <c r="W136" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>21.325600000000001</v>
       </c>
       <c r="X136" s="108"/>
@@ -12028,7 +11976,7 @@
       </c>
       <c r="P137" s="12"/>
       <c r="Q137" s="9">
-        <f t="shared" ref="Q137:Q139" si="49">IF(SUM(D137:I137)&gt;0.95,D137*J137+E137*K137+F137*L137+G137*M137+H137*N137+I137*O137,"")</f>
+        <f t="shared" ref="Q137:Q139" si="48">IF(SUM(D137:I137)&gt;0.95,D137*J137+E137*K137+F137*L137+G137*M137+H137*N137+I137*O137,"")</f>
         <v>9.18</v>
       </c>
       <c r="R137" s="108"/>
@@ -12040,7 +11988,7 @@
       <c r="U137" s="23"/>
       <c r="V137" s="12"/>
       <c r="W137" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>21.785599999999999</v>
       </c>
       <c r="X137" s="108"/>
@@ -12094,7 +12042,7 @@
       </c>
       <c r="P138" s="12"/>
       <c r="Q138" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="R138" s="108"/>
@@ -12160,7 +12108,7 @@
       </c>
       <c r="P139" s="12"/>
       <c r="Q139" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>11.21</v>
       </c>
       <c r="R139" s="108"/>
@@ -12172,7 +12120,7 @@
       <c r="U139" s="23"/>
       <c r="V139" s="12"/>
       <c r="W139" s="9">
-        <f t="shared" ref="W139:W140" si="50">IF(SUM(D139:I139)&gt;0.95,Q139+T139,"")</f>
+        <f t="shared" ref="W139:W155" si="49">IF(SUM(D139:I139)&gt;0.95,Q139+T139,"")</f>
         <v>23.8156</v>
       </c>
       <c r="X139" s="108"/>
@@ -12238,7 +12186,7 @@
       <c r="U140" s="126"/>
       <c r="V140" s="13"/>
       <c r="W140" s="125">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>28.7056</v>
       </c>
       <c r="X140" s="127"/>
@@ -12304,7 +12252,7 @@
       <c r="U141" s="106"/>
       <c r="V141" s="11"/>
       <c r="W141" s="105">
-        <f>IF(SUM(D141:I141)&gt;0.95,Q141+T141,"")</f>
+        <f t="shared" si="49"/>
         <v>17.441248374999997</v>
       </c>
       <c r="X141" s="107"/>
@@ -12372,13 +12320,13 @@
       <c r="S142" s="14"/>
       <c r="T142" s="9">
         <f>D142*Z123+E142*Z124+F142*Z125+G142*Z126+H142*Z127+I142*Z128</f>
-        <v>19.1784347</v>
+        <v>19.272899379999998</v>
       </c>
       <c r="U142" s="23"/>
       <c r="V142" s="12"/>
       <c r="W142" s="9">
-        <f>IF(SUM(D142:I142)&gt;0.95,Q142+T142,"")</f>
-        <v>21.2564347</v>
+        <f t="shared" si="49"/>
+        <v>21.350899379999998</v>
       </c>
       <c r="X142" s="108"/>
       <c r="Y142" s="14"/>
@@ -12450,13 +12398,13 @@
       <c r="S143" s="14"/>
       <c r="T143" s="9">
         <f>D143*Z123+E143*Z124+F143*Z125+G143*Z126+H143*Z127+I143*Z128</f>
-        <v>21.757440849999998</v>
+        <v>22.088067229999996</v>
       </c>
       <c r="U143" s="23"/>
       <c r="V143" s="12"/>
       <c r="W143" s="9">
-        <f>IF(SUM(D143:I143)&gt;0.95,Q143+T143,"")</f>
-        <v>27.566940849999998</v>
+        <f t="shared" si="49"/>
+        <v>27.897567229999996</v>
       </c>
       <c r="X143" s="108"/>
       <c r="Y143" s="14"/>
@@ -12467,7 +12415,7 @@
       <c r="AA143" s="108"/>
       <c r="AB143" s="89"/>
       <c r="AC143" s="88">
-        <f t="shared" ref="AC143" si="51">Z143-Z125</f>
+        <f t="shared" ref="AC143" si="50">Z143-Z125</f>
         <v>2.4185023000000001</v>
       </c>
     </row>
@@ -12516,32 +12464,32 @@
       </c>
       <c r="P144" s="12"/>
       <c r="Q144" s="9">
-        <f t="shared" ref="Q144:Q145" si="52">IF(SUM(D144:I144)&gt;0.95,D144*J144+E144*K144+F144*L144+G144*M144+H144*N144+I144*O144,"")</f>
+        <f t="shared" ref="Q144:Q145" si="51">IF(SUM(D144:I144)&gt;0.95,D144*J144+E144*K144+F144*L144+G144*M144+H144*N144+I144*O144,"")</f>
         <v>13.3415</v>
       </c>
       <c r="R144" s="108"/>
       <c r="S144" s="14"/>
       <c r="T144" s="9">
         <f>D144*Z123+E144*Z124+F144*Z125+G144*Z126+H144*Z127+I144*Z128</f>
-        <v>25.0381</v>
+        <v>25.604888079999998</v>
       </c>
       <c r="U144" s="23"/>
       <c r="V144" s="12"/>
       <c r="W144" s="9">
-        <f>IF(SUM(D144:I144)&gt;0.95,Q144+T144,"")</f>
-        <v>38.379599999999996</v>
+        <f t="shared" si="49"/>
+        <v>38.946388079999998</v>
       </c>
       <c r="X144" s="108"/>
       <c r="Y144" s="14"/>
       <c r="Z144" s="9">
-        <f>IF(OR(SUM(D144:I144)&gt;0.95,SUM(D150:I150)&gt;0.95,SUM(D157:I157)&gt;0.95),IF($I$5="min",MIN(W144,W150,W157),MAX(W144,W150,W157)),"")</f>
-        <v>26.235223249999997</v>
+        <f>IF(OR(SUM(D144:I144)&gt;0.95,SUM(D150:I150)&gt;0.95,SUM(D157:I157)&gt;0.95),IF($I$5="min",MIN(W144,W150,W158),MAX(W144,W150,W158)),"")</f>
+        <v>27.171608199999994</v>
       </c>
       <c r="AA144" s="108"/>
       <c r="AB144" s="89"/>
       <c r="AC144" s="88">
         <f>Z144-Z126</f>
-        <v>2.4196232499999972</v>
+        <v>2.411361399999997</v>
       </c>
     </row>
     <row r="145" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12589,7 +12537,7 @@
       </c>
       <c r="P145" s="119"/>
       <c r="Q145" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>32.22</v>
       </c>
       <c r="R145" s="120"/>
@@ -12601,7 +12549,7 @@
       <c r="U145" s="118"/>
       <c r="V145" s="119"/>
       <c r="W145" s="9">
-        <f>IF(SUM(D145:I145)&gt;0.95,Q145+T145,"")</f>
+        <f t="shared" si="49"/>
         <v>58.725099999999998</v>
       </c>
       <c r="X145" s="120"/>
@@ -12613,7 +12561,7 @@
       <c r="AA145" s="108"/>
       <c r="AB145" s="89"/>
       <c r="AC145" s="88">
-        <f t="shared" ref="AC145:AC146" si="53">Z145-Z127</f>
+        <f t="shared" ref="AC145:AC146" si="52">Z145-Z127</f>
         <v>2.4196232499999972</v>
       </c>
     </row>
@@ -12674,7 +12622,7 @@
       <c r="U146" s="111"/>
       <c r="V146" s="112"/>
       <c r="W146" s="110">
-        <f>IF(SUM(D146:I146)&gt;0.95,Q146+T146,"")</f>
+        <f t="shared" si="49"/>
         <v>31.125223249999998</v>
       </c>
       <c r="X146" s="113"/>
@@ -12686,7 +12634,7 @@
       <c r="AA146" s="108"/>
       <c r="AB146" s="89"/>
       <c r="AC146" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2.4196232499999972</v>
       </c>
     </row>
@@ -12747,7 +12695,7 @@
       <c r="U147" s="44"/>
       <c r="V147" s="115"/>
       <c r="W147" s="15">
-        <f>IF(SUM(D147:I147)&gt;0.95,Q147+T147,"")</f>
+        <f t="shared" si="49"/>
         <v>17.441248374999997</v>
       </c>
       <c r="X147" s="116"/>
@@ -12816,7 +12764,7 @@
       <c r="U148" s="23"/>
       <c r="V148" s="12"/>
       <c r="W148" s="9">
-        <f>IF(SUM(D148:I148)&gt;0.95,Q148+T148,"")</f>
+        <f t="shared" si="49"/>
         <v>19.745223249999999</v>
       </c>
       <c r="X148" s="108"/>
@@ -12873,7 +12821,7 @@
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="9">
-        <f t="shared" ref="Q149:Q151" si="54">IF(SUM(D149:I149)&gt;0.95,D149*J149+E149*K149+F149*L149+G149*M149+H149*N149+I149*O149,"")</f>
+        <f t="shared" ref="Q149:Q151" si="53">IF(SUM(D149:I149)&gt;0.95,D149*J149+E149*K149+F149*L149+G149*M149+H149*N149+I149*O149,"")</f>
         <v>5.6419999999999995</v>
       </c>
       <c r="R149" s="108"/>
@@ -12885,7 +12833,7 @@
       <c r="U149" s="23"/>
       <c r="V149" s="12"/>
       <c r="W149" s="9">
-        <f>IF(SUM(D149:I149)&gt;0.95,Q149+T149,"")</f>
+        <f t="shared" si="49"/>
         <v>22.047449299999997</v>
       </c>
       <c r="X149" s="108"/>
@@ -12939,7 +12887,7 @@
       </c>
       <c r="P150" s="12"/>
       <c r="Q150" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>8.4640000000000004</v>
       </c>
       <c r="R150" s="108"/>
@@ -12951,7 +12899,7 @@
       <c r="U150" s="23"/>
       <c r="V150" s="12"/>
       <c r="W150" s="9">
-        <f>IF(SUM(D150:I150)&gt;0.95,Q150+T150,"")</f>
+        <f t="shared" si="49"/>
         <v>27.171608199999994</v>
       </c>
       <c r="X150" s="108"/>
@@ -13005,20 +12953,20 @@
       </c>
       <c r="P151" s="119"/>
       <c r="Q151" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>16.135999999999999</v>
       </c>
       <c r="R151" s="120"/>
       <c r="S151" s="117"/>
       <c r="T151" s="9">
         <f>D151*Z123+E151*Z124+F151*Z125+G151*Z126+H151*Z127+I151*Z128</f>
-        <v>22.140938800000001</v>
+        <v>22.707726879999996</v>
       </c>
       <c r="U151" s="118"/>
       <c r="V151" s="119"/>
       <c r="W151" s="9">
-        <f>IF(SUM(D151:I151)&gt;0.95,Q151+T151,"")</f>
-        <v>38.276938799999996</v>
+        <f t="shared" si="49"/>
+        <v>38.843726879999991</v>
       </c>
       <c r="X151" s="120"/>
       <c r="Y151" s="117"/>
@@ -13083,7 +13031,7 @@
       <c r="U152" s="118"/>
       <c r="V152" s="119"/>
       <c r="W152" s="21">
-        <f>IF(SUM(D152:I152)&gt;0.95,Q152+T152,"")</f>
+        <f t="shared" si="49"/>
         <v>31.125223249999998</v>
       </c>
       <c r="X152" s="120"/>
@@ -13148,8 +13096,8 @@
       </c>
       <c r="U153" s="121"/>
       <c r="V153" s="122"/>
-      <c r="W153" s="150">
-        <f t="shared" ref="W153:W155" si="55">IF(SUM(D153:I153)&gt;0.95,Q153+T153,"")</f>
+      <c r="W153" s="148">
+        <f t="shared" si="49"/>
         <v>17.441248374999997</v>
       </c>
       <c r="X153" s="123"/>
@@ -13215,7 +13163,7 @@
       <c r="U154" s="23"/>
       <c r="V154" s="12"/>
       <c r="W154" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>23.745223249999999</v>
       </c>
       <c r="X154" s="108"/>
@@ -13272,7 +13220,7 @@
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="9">
-        <f t="shared" ref="Q155:Q157" si="56">IF(SUM(D155:I155)&gt;0.95,D155*J155+E155*K155+F155*L155+G155*M155+H155*N155+I155*O155,"")</f>
+        <f t="shared" ref="Q155:Q157" si="54">IF(SUM(D155:I155)&gt;0.95,D155*J155+E155*K155+F155*L155+G155*M155+H155*N155+I155*O155,"")</f>
         <v>9.18</v>
       </c>
       <c r="R155" s="108"/>
@@ -13284,7 +13232,7 @@
       <c r="U155" s="23"/>
       <c r="V155" s="12"/>
       <c r="W155" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>24.205223249999996</v>
       </c>
       <c r="X155" s="108"/>
@@ -13338,7 +13286,7 @@
       </c>
       <c r="P156" s="12"/>
       <c r="Q156" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="R156" s="108"/>
@@ -13404,7 +13352,7 @@
       </c>
       <c r="P157" s="12"/>
       <c r="Q157" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>11.21</v>
       </c>
       <c r="R157" s="108"/>
@@ -13416,7 +13364,7 @@
       <c r="U157" s="23"/>
       <c r="V157" s="12"/>
       <c r="W157" s="9">
-        <f t="shared" ref="W157:W158" si="57">IF(SUM(D157:I157)&gt;0.95,Q157+T157,"")</f>
+        <f t="shared" ref="W157:W173" si="55">IF(SUM(D157:I157)&gt;0.95,Q157+T157,"")</f>
         <v>26.235223249999997</v>
       </c>
       <c r="X157" s="108"/>
@@ -13482,7 +13430,7 @@
       <c r="U158" s="126"/>
       <c r="V158" s="13"/>
       <c r="W158" s="125">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>31.125223249999998</v>
       </c>
       <c r="X158" s="127"/>
@@ -13548,7 +13496,7 @@
       <c r="U159" s="106"/>
       <c r="V159" s="11"/>
       <c r="W159" s="105">
-        <f>IF(SUM(D159:I159)&gt;0.95,Q159+T159,"")</f>
+        <f t="shared" si="55"/>
         <v>19.858792325</v>
       </c>
       <c r="X159" s="107"/>
@@ -13616,17 +13564,17 @@
       <c r="S160" s="14"/>
       <c r="T160" s="9">
         <f>D160*Z141+E160*Z142+F160*Z143+G160*Z144+H160*Z145+I160*Z146</f>
-        <v>21.597945854999999</v>
+        <v>21.691584349999999</v>
       </c>
       <c r="U160" s="23"/>
       <c r="V160" s="12"/>
       <c r="W160" s="9">
-        <f>IF(SUM(D160:I160)&gt;0.95,Q160+T160,"")</f>
-        <v>23.675945854999998</v>
+        <f t="shared" si="55"/>
+        <v>23.769584349999999</v>
       </c>
       <c r="X160" s="108"/>
       <c r="Y160" s="14"/>
-      <c r="Z160" s="9">
+      <c r="Z160" s="162">
         <f>IF(OR(SUM(D160:I160)&gt;0.95,SUM(D166:I166)&gt;0.95,SUM(D172:I172)&gt;0.95),IF($I$5="min",MIN(W160,W166,W172),MAX(W160,W166,W172)),"")</f>
         <v>22.161248374999996</v>
       </c>
@@ -13694,24 +13642,24 @@
       <c r="S161" s="14"/>
       <c r="T161" s="9">
         <f>D161*Z141+E161*Z142+F161*Z143+G161*Z144+H161*Z145+I161*Z146</f>
-        <v>24.176447577499999</v>
+        <v>24.504182309999997</v>
       </c>
       <c r="U161" s="23"/>
       <c r="V161" s="12"/>
       <c r="W161" s="9">
-        <f>IF(SUM(D161:I161)&gt;0.95,Q161+T161,"")</f>
-        <v>29.985947577499999</v>
+        <f t="shared" si="55"/>
+        <v>30.313682309999997</v>
       </c>
       <c r="X161" s="108"/>
       <c r="Y161" s="14"/>
-      <c r="Z161" s="9">
+      <c r="Z161" s="162">
         <f>IF(OR(SUM(D161:I161)&gt;0.95,SUM(D167:I167)&gt;0.95,SUM(D173:I173)&gt;0.95),IF($I$5="min",MIN(W161,W167,W173),MAX(W161,W167,W173)),"")</f>
         <v>24.465633299999997</v>
       </c>
       <c r="AA161" s="108"/>
       <c r="AB161" s="89"/>
       <c r="AC161" s="88">
-        <f t="shared" ref="AC161" si="58">Z161-Z143</f>
+        <f t="shared" ref="AC161" si="56">Z161-Z143</f>
         <v>2.4181840000000001</v>
       </c>
     </row>
@@ -13760,32 +13708,32 @@
       </c>
       <c r="P162" s="12"/>
       <c r="Q162" s="9">
-        <f t="shared" ref="Q162:Q163" si="59">IF(SUM(D162:I162)&gt;0.95,D162*J162+E162*K162+F162*L162+G162*M162+H162*N162+I162*O162,"")</f>
+        <f t="shared" ref="Q162:Q163" si="57">IF(SUM(D162:I162)&gt;0.95,D162*J162+E162*K162+F162*L162+G162*M162+H162*N162+I162*O162,"")</f>
         <v>13.3415</v>
       </c>
       <c r="R162" s="108"/>
       <c r="S162" s="14"/>
       <c r="T162" s="9">
         <f>D162*Z141+E162*Z142+F162*Z143+G162*Z144+H162*Z145+I162*Z146</f>
-        <v>27.457723250000001</v>
+        <v>28.019554219999996</v>
       </c>
       <c r="U162" s="23"/>
       <c r="V162" s="12"/>
       <c r="W162" s="9">
-        <f>IF(SUM(D162:I162)&gt;0.95,Q162+T162,"")</f>
-        <v>40.799223249999997</v>
+        <f t="shared" si="55"/>
+        <v>41.36105422</v>
       </c>
       <c r="X162" s="108"/>
       <c r="Y162" s="14"/>
-      <c r="Z162" s="9">
-        <f>IF(OR(SUM(D162:I162)&gt;0.95,SUM(D168:I168)&gt;0.95,SUM(D175:I175)&gt;0.95),IF($I$5="min",MIN(W162,W168,W175),MAX(W162,W168,W175)),"")</f>
-        <v>28.651248374999998</v>
+      <c r="Z162" s="162">
+        <f>IF(OR(SUM(D162:I162)&gt;0.95,SUM(D168:I168)&gt;0.95,SUM(D175:I175)&gt;0.95),IF($I$5="min",MIN(W162,W168,W176),MAX(W162,W168,W176)),"")</f>
+        <v>29.590558879999996</v>
       </c>
       <c r="AA162" s="108"/>
       <c r="AB162" s="89"/>
       <c r="AC162" s="88">
         <f>Z162-Z144</f>
-        <v>2.4160251250000009</v>
+        <v>2.4189506800000018</v>
       </c>
     </row>
     <row r="163" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13833,7 +13781,7 @@
       </c>
       <c r="P163" s="119"/>
       <c r="Q163" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>32.22</v>
       </c>
       <c r="R163" s="120"/>
@@ -13845,19 +13793,19 @@
       <c r="U163" s="118"/>
       <c r="V163" s="119"/>
       <c r="W163" s="9">
-        <f>IF(SUM(D163:I163)&gt;0.95,Q163+T163,"")</f>
+        <f t="shared" si="55"/>
         <v>61.144723249999998</v>
       </c>
       <c r="X163" s="120"/>
       <c r="Y163" s="14"/>
-      <c r="Z163" s="9">
+      <c r="Z163" s="163">
         <f>IF(OR(SUM(D163:I163)&gt;0.95,SUM(D169:I169)&gt;0.95,SUM(D175:I175)&gt;0.95),IF($I$5="min",MIN(W163,W169,W175),MAX(W163,W169,W175)),"")</f>
         <v>28.651248374999998</v>
       </c>
       <c r="AA163" s="108"/>
       <c r="AB163" s="89"/>
       <c r="AC163" s="88">
-        <f t="shared" ref="AC163:AC164" si="60">Z163-Z145</f>
+        <f t="shared" ref="AC163:AC164" si="58">Z163-Z145</f>
         <v>2.4160251250000009</v>
       </c>
     </row>
@@ -13918,7 +13866,7 @@
       <c r="U164" s="111"/>
       <c r="V164" s="112"/>
       <c r="W164" s="110">
-        <f>IF(SUM(D164:I164)&gt;0.95,Q164+T164,"")</f>
+        <f t="shared" si="55"/>
         <v>33.541248374999995</v>
       </c>
       <c r="X164" s="113"/>
@@ -13930,7 +13878,7 @@
       <c r="AA164" s="108"/>
       <c r="AB164" s="89"/>
       <c r="AC164" s="88">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>2.4160251249999973</v>
       </c>
     </row>
@@ -13991,7 +13939,7 @@
       <c r="U165" s="44"/>
       <c r="V165" s="115"/>
       <c r="W165" s="15">
-        <f>IF(SUM(D165:I165)&gt;0.95,Q165+T165,"")</f>
+        <f t="shared" si="55"/>
         <v>19.858792325</v>
       </c>
       <c r="X165" s="116"/>
@@ -14059,8 +14007,8 @@
       </c>
       <c r="U166" s="23"/>
       <c r="V166" s="12"/>
-      <c r="W166" s="9">
-        <f>IF(SUM(D166:I166)&gt;0.95,Q166+T166,"")</f>
+      <c r="W166" s="162">
+        <f t="shared" si="55"/>
         <v>22.161248374999996</v>
       </c>
       <c r="X166" s="108"/>
@@ -14117,7 +14065,7 @@
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="9">
-        <f t="shared" ref="Q167:Q169" si="61">IF(SUM(D167:I167)&gt;0.95,D167*J167+E167*K167+F167*L167+G167*M167+H167*N167+I167*O167,"")</f>
+        <f t="shared" ref="Q167:Q169" si="59">IF(SUM(D167:I167)&gt;0.95,D167*J167+E167*K167+F167*L167+G167*M167+H167*N167+I167*O167,"")</f>
         <v>5.6419999999999995</v>
       </c>
       <c r="R167" s="108"/>
@@ -14128,8 +14076,8 @@
       </c>
       <c r="U167" s="23"/>
       <c r="V167" s="12"/>
-      <c r="W167" s="9">
-        <f>IF(SUM(D167:I167)&gt;0.95,Q167+T167,"")</f>
+      <c r="W167" s="162">
+        <f t="shared" si="55"/>
         <v>24.465633299999997</v>
       </c>
       <c r="X167" s="108"/>
@@ -14183,7 +14131,7 @@
       </c>
       <c r="P168" s="12"/>
       <c r="Q168" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>8.4640000000000004</v>
       </c>
       <c r="R168" s="108"/>
@@ -14194,8 +14142,8 @@
       </c>
       <c r="U168" s="23"/>
       <c r="V168" s="12"/>
-      <c r="W168" s="9">
-        <f>IF(SUM(D168:I168)&gt;0.95,Q168+T168,"")</f>
+      <c r="W168" s="162">
+        <f t="shared" si="55"/>
         <v>29.590558879999996</v>
       </c>
       <c r="X168" s="108"/>
@@ -14249,20 +14197,20 @@
       </c>
       <c r="P169" s="119"/>
       <c r="Q169" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>16.135999999999999</v>
       </c>
       <c r="R169" s="120"/>
       <c r="S169" s="117"/>
       <c r="T169" s="9">
         <f>D169*Z141+E169*Z142+F169*Z143+G169*Z144+H169*Z145+I169*Z146</f>
-        <v>24.56011367</v>
+        <v>25.121944639999995</v>
       </c>
       <c r="U169" s="118"/>
       <c r="V169" s="119"/>
       <c r="W169" s="9">
-        <f>IF(SUM(D169:I169)&gt;0.95,Q169+T169,"")</f>
-        <v>40.696113670000003</v>
+        <f t="shared" si="55"/>
+        <v>41.257944639999991</v>
       </c>
       <c r="X169" s="120"/>
       <c r="Y169" s="117"/>
@@ -14327,7 +14275,7 @@
       <c r="U170" s="118"/>
       <c r="V170" s="119"/>
       <c r="W170" s="21">
-        <f>IF(SUM(D170:I170)&gt;0.95,Q170+T170,"")</f>
+        <f t="shared" si="55"/>
         <v>33.541248374999995</v>
       </c>
       <c r="X170" s="120"/>
@@ -14392,8 +14340,8 @@
       </c>
       <c r="U171" s="121"/>
       <c r="V171" s="122"/>
-      <c r="W171" s="150">
-        <f t="shared" ref="W171:W173" si="62">IF(SUM(D171:I171)&gt;0.95,Q171+T171,"")</f>
+      <c r="W171" s="148">
+        <f t="shared" si="55"/>
         <v>19.858792325</v>
       </c>
       <c r="X171" s="123"/>
@@ -14459,7 +14407,7 @@
       <c r="U172" s="23"/>
       <c r="V172" s="12"/>
       <c r="W172" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>26.161248375</v>
       </c>
       <c r="X172" s="108"/>
@@ -14516,7 +14464,7 @@
       </c>
       <c r="P173" s="12"/>
       <c r="Q173" s="9">
-        <f t="shared" ref="Q173:Q175" si="63">IF(SUM(D173:I173)&gt;0.95,D173*J173+E173*K173+F173*L173+G173*M173+H173*N173+I173*O173,"")</f>
+        <f t="shared" ref="Q173:Q175" si="60">IF(SUM(D173:I173)&gt;0.95,D173*J173+E173*K173+F173*L173+G173*M173+H173*N173+I173*O173,"")</f>
         <v>9.18</v>
       </c>
       <c r="R173" s="108"/>
@@ -14528,7 +14476,7 @@
       <c r="U173" s="23"/>
       <c r="V173" s="12"/>
       <c r="W173" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>26.621248374999997</v>
       </c>
       <c r="X173" s="108"/>
@@ -14582,7 +14530,7 @@
       </c>
       <c r="P174" s="12"/>
       <c r="Q174" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="R174" s="108"/>
@@ -14648,7 +14596,7 @@
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>11.21</v>
       </c>
       <c r="R175" s="108"/>
@@ -14659,8 +14607,8 @@
       </c>
       <c r="U175" s="23"/>
       <c r="V175" s="12"/>
-      <c r="W175" s="9">
-        <f t="shared" ref="W175:W176" si="64">IF(SUM(D175:I175)&gt;0.95,Q175+T175,"")</f>
+      <c r="W175" s="163">
+        <f t="shared" ref="W175:W176" si="61">IF(SUM(D175:I175)&gt;0.95,Q175+T175,"")</f>
         <v>28.651248374999998</v>
       </c>
       <c r="X175" s="108"/>
@@ -14726,7 +14674,7 @@
       <c r="U176" s="126"/>
       <c r="V176" s="13"/>
       <c r="W176" s="125">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>33.541248374999995</v>
       </c>
       <c r="X176" s="127"/>
@@ -14746,182 +14694,5 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="4109" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="4109" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="4110" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="4110" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="4111" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="4111" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="4112" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>304800</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="4112" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="4113" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="4113" r:id="rId12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="4114" r:id="rId14">
-          <objectPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>333375</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="4114" r:id="rId14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="4117" r:id="rId16">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>304800</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="4117" r:id="rId16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>